--- a/data/input_behavior/BehaviorScenario_TechnologyPowerActive.xlsx
+++ b/data/input_behavior/BehaviorScenario_TechnologyPowerActive.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/FLEX/data/input_behavior/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA946C9-E081-D14F-B489-65242677D251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E82484-C59D-6F42-9B40-BE200990EC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3160" yWindow="2300" windowWidth="24620" windowHeight="13700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7220" yWindow="-18980" windowWidth="24620" windowHeight="13700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="4">
   <si>
     <t>ID_Technology</t>
   </si>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -874,8 +874,8 @@
       <c r="B40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="5">
-        <v>0</v>
+      <c r="C40" s="4">
+        <v>500</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -885,8 +885,8 @@
       <c r="B41" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="5">
-        <v>0</v>
+      <c r="C41" s="4">
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -896,40 +896,7 @@
       <c r="B42" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
-        <v>41</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
-        <v>42</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
-        <v>43</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" s="4">
+      <c r="C42" s="4">
         <v>200</v>
       </c>
     </row>
@@ -939,6 +906,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101001383FD7952F44C4AA66F138C1496F932" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="0f10bb0856646bfda2b94dc29ed0a887">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed526690-1b82-4476-9598-c0eeafad58f9" xmlns:ns3="f971c2dd-4979-4752-97a1-eb062e2c22bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ca21336e7eb6462c50ac4645cdd355ca" ns2:_="" ns3:_="">
     <xsd:import namespace="ed526690-1b82-4476-9598-c0eeafad58f9"/>
@@ -1143,15 +1119,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1171,6 +1138,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{257DA3DA-5CBF-44C8-AF96-57A945D7109F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A82277C-FB17-4D03-8A51-E0EB9D4B4B52}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1189,14 +1164,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{257DA3DA-5CBF-44C8-AF96-57A945D7109F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4123E9A7-AD52-4A33-BBDD-39D9E770116F}">
   <ds:schemaRefs>
